--- a/№1/Компании/Военная компания для паладинов/Табло.xlsx
+++ b/№1/Компании/Военная компания для паладинов/Табло.xlsx
@@ -925,7 +925,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -1787,7 +1787,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
